--- a/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{789B90FC-785A-4860-94F5-9B282ED58E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C93931-51AA-48B7-8C82-1B024929A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8291A847-5EA7-433A-A1C0-57B97EEBC913}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DBB52D4-ED04-4110-90DE-C99107A4EC25}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
     <sheet name="2015" sheetId="4" r:id="rId3"/>
-    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="229">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -134,6 +133,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>84,15%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -152,9 +208,6 @@
     <t>83,47%</t>
   </si>
   <si>
-    <t>90,85%</t>
-  </si>
-  <si>
     <t>86,81%</t>
   </si>
   <si>
@@ -176,9 +229,6 @@
     <t>12,25%</t>
   </si>
   <si>
-    <t>9,15%</t>
-  </si>
-  <si>
     <t>16,53%</t>
   </si>
   <si>
@@ -191,57 +241,6 @@
     <t>16,01%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
     <t>89,38%</t>
   </si>
   <si>
@@ -353,6 +352,60 @@
     <t>12,9%</t>
   </si>
   <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>80,67%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
     <t>86,25%</t>
   </si>
   <si>
@@ -407,60 +460,6 @@
     <t>16,31%</t>
   </si>
   <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
     <t>87,67%</t>
   </si>
   <si>
@@ -566,6 +565,60 @@
     <t>12,95%</t>
   </si>
   <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>89,65%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
     <t>88,29%</t>
   </si>
   <si>
@@ -620,60 +673,6 @@
     <t>14,0%</t>
   </si>
   <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
     <t>89,81%</t>
   </si>
   <si>
@@ -726,225 +725,6 @@
   </si>
   <si>
     <t>11,34%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2023 (Tasa respuesta: 17,76%)</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>41,6%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>53,63%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>44,41%</t>
-  </si>
-  <si>
-    <t>62,63%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>46,37%</t>
-  </si>
-  <si>
-    <t>32,73%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>58,0%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>68,28%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>42,0%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>56,57%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>62,21%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
   </si>
 </sst>
 </file>
@@ -1336,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1453D5E0-BB2F-4537-9FF3-C5814B7F9935}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5616CC-91EE-4429-82A9-95E83942C81A}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1609,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="D7" s="7">
-        <v>193900</v>
+        <v>174780</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1624,10 +1404,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="I7" s="7">
-        <v>191281</v>
+        <v>172085</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1639,10 +1419,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>574</v>
+        <v>518</v>
       </c>
       <c r="N7" s="7">
-        <v>385181</v>
+        <v>346865</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1660,10 +1440,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>31827</v>
+        <v>23522</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1675,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>26691</v>
+        <v>10154</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1690,10 +1470,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="N8" s="7">
-        <v>58517</v>
+        <v>33676</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1711,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="D9" s="7">
-        <v>225727</v>
+        <v>198302</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1726,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="I9" s="7">
-        <v>217972</v>
+        <v>182239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1741,10 +1521,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="N9" s="7">
-        <v>443698</v>
+        <v>380541</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1764,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7">
-        <v>174780</v>
+        <v>193900</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1779,25 +1559,25 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="I10" s="7">
-        <v>172085</v>
+        <v>191281</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="M10" s="7">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="N10" s="7">
-        <v>346865</v>
+        <v>385181</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>56</v>
@@ -1815,10 +1595,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>23522</v>
+        <v>31827</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>59</v>
@@ -1830,25 +1610,25 @@
         <v>61</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>10154</v>
+        <v>26691</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="M11" s="7">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="N11" s="7">
-        <v>33676</v>
+        <v>58517</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>64</v>
@@ -1866,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="D12" s="7">
-        <v>198302</v>
+        <v>225727</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1661,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>269</v>
+        <v>322</v>
       </c>
       <c r="I12" s="7">
-        <v>182239</v>
+        <v>217972</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1896,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>569</v>
+        <v>661</v>
       </c>
       <c r="N12" s="7">
-        <v>380541</v>
+        <v>443698</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2082,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A4E1B3-D92A-4E65-B131-883EE0351100}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20870E7-7494-4FD9-BCC0-43951D946F86}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2355,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>319</v>
+        <v>270</v>
       </c>
       <c r="D7" s="7">
-        <v>216218</v>
+        <v>196343</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2370,10 +2150,10 @@
         <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="I7" s="7">
-        <v>202054</v>
+        <v>184613</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>107</v>
@@ -2385,10 +2165,10 @@
         <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>606</v>
+        <v>529</v>
       </c>
       <c r="N7" s="7">
-        <v>418273</v>
+        <v>380956</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>110</v>
@@ -2406,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7">
-        <v>34474</v>
+        <v>30290</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>113</v>
@@ -2421,10 +2201,10 @@
         <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>29583</v>
+        <v>31597</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>116</v>
@@ -2436,10 +2216,10 @@
         <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>64057</v>
+        <v>61888</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
@@ -2457,10 +2237,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>368</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>250692</v>
+        <v>226633</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2472,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="I9" s="7">
-        <v>231637</v>
+        <v>216210</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2487,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>697</v>
+        <v>614</v>
       </c>
       <c r="N9" s="7">
-        <v>482330</v>
+        <v>442844</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2510,10 +2290,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>270</v>
+        <v>319</v>
       </c>
       <c r="D10" s="7">
-        <v>196343</v>
+        <v>216218</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>122</v>
@@ -2525,10 +2305,10 @@
         <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="I10" s="7">
-        <v>184613</v>
+        <v>202054</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>125</v>
@@ -2540,10 +2320,10 @@
         <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="N10" s="7">
-        <v>380956</v>
+        <v>418273</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>128</v>
@@ -2561,10 +2341,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>30290</v>
+        <v>34474</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>131</v>
@@ -2576,10 +2356,10 @@
         <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>31597</v>
+        <v>29583</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>134</v>
@@ -2591,10 +2371,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="N11" s="7">
-        <v>61888</v>
+        <v>64057</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2612,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>312</v>
+        <v>368</v>
       </c>
       <c r="D12" s="7">
-        <v>226633</v>
+        <v>250692</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2627,10 +2407,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="I12" s="7">
-        <v>216210</v>
+        <v>231637</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2642,10 +2422,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>614</v>
+        <v>697</v>
       </c>
       <c r="N12" s="7">
-        <v>442844</v>
+        <v>482330</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2704,7 +2484,7 @@
         <v>146</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>147</v>
@@ -2758,7 +2538,7 @@
         <v>155</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A2C9360-2E64-44DE-962A-2B526F0EB51E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E4A4E-D643-43A3-BB2C-7CDBDF6079D1}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,10 +2881,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="D7" s="7">
-        <v>214084</v>
+        <v>206349</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -3116,10 +2896,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="I7" s="7">
-        <v>210784</v>
+        <v>197302</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -3131,10 +2911,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="N7" s="7">
-        <v>424868</v>
+        <v>403651</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>181</v>
@@ -3152,10 +2932,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
-        <v>28384</v>
+        <v>20068</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
@@ -3167,10 +2947,10 @@
         <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>25272</v>
+        <v>15821</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>187</v>
@@ -3182,10 +2962,10 @@
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>53656</v>
+        <v>35889</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -3203,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D9" s="7">
-        <v>242468</v>
+        <v>226417</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3218,10 +2998,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="I9" s="7">
-        <v>236056</v>
+        <v>213123</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3233,10 +3013,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="N9" s="7">
-        <v>478524</v>
+        <v>439540</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3256,10 +3036,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="D10" s="7">
-        <v>206349</v>
+        <v>214084</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3271,10 +3051,10 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I10" s="7">
-        <v>197302</v>
+        <v>210784</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
@@ -3286,10 +3066,10 @@
         <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="N10" s="7">
-        <v>403651</v>
+        <v>424868</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3307,10 +3087,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>20068</v>
+        <v>28384</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3322,10 +3102,10 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="I11" s="7">
-        <v>15821</v>
+        <v>25272</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
@@ -3337,10 +3117,10 @@
         <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="N11" s="7">
-        <v>35889</v>
+        <v>53656</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3358,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D12" s="7">
-        <v>226417</v>
+        <v>242468</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3373,10 +3153,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="I12" s="7">
-        <v>213123</v>
+        <v>236056</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3388,10 +3168,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="N12" s="7">
-        <v>439540</v>
+        <v>478524</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3547,752 +3327,6 @@
       </c>
       <c r="N15" s="7">
         <v>1310673</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E4EF30-0BFC-4D60-BC86-34937C884FDF}">
-  <dimension ref="A1:Q15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="17" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="7">
-        <v>33</v>
-      </c>
-      <c r="D4" s="7">
-        <v>16085</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H4" s="7">
-        <v>25</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14054</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M4" s="7">
-        <v>58</v>
-      </c>
-      <c r="N4" s="7">
-        <v>30139</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="7">
-        <v>24</v>
-      </c>
-      <c r="D5" s="7">
-        <v>11458</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H5" s="7">
-        <v>17</v>
-      </c>
-      <c r="I5" s="7">
-        <v>8648</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="M5" s="7">
-        <v>41</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20106</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="7">
-        <v>57</v>
-      </c>
-      <c r="D6" s="7">
-        <v>27543</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>42</v>
-      </c>
-      <c r="I6" s="7">
-        <v>22702</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>99</v>
-      </c>
-      <c r="N6" s="7">
-        <v>50245</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>45</v>
-      </c>
-      <c r="D7" s="7">
-        <v>32824</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H7" s="7">
-        <v>34</v>
-      </c>
-      <c r="I7" s="7">
-        <v>22785</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M7" s="7">
-        <v>79</v>
-      </c>
-      <c r="N7" s="7">
-        <v>55610</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="7">
-        <v>33</v>
-      </c>
-      <c r="D8" s="7">
-        <v>27878</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="H8" s="7">
-        <v>25</v>
-      </c>
-      <c r="I8" s="7">
-        <v>19699</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="M8" s="7">
-        <v>58</v>
-      </c>
-      <c r="N8" s="7">
-        <v>47576</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="7">
-        <v>78</v>
-      </c>
-      <c r="D9" s="7">
-        <v>60702</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>59</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42484</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="7">
-        <v>137</v>
-      </c>
-      <c r="N9" s="7">
-        <v>103186</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="7">
-        <v>33</v>
-      </c>
-      <c r="D10" s="7">
-        <v>24001</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="H10" s="7">
-        <v>28</v>
-      </c>
-      <c r="I10" s="7">
-        <v>18291</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M10" s="7">
-        <v>61</v>
-      </c>
-      <c r="N10" s="7">
-        <v>42292</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="7">
-        <v>20</v>
-      </c>
-      <c r="D11" s="7">
-        <v>14179</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H11" s="7">
-        <v>24</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16445</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M11" s="7">
-        <v>44</v>
-      </c>
-      <c r="N11" s="7">
-        <v>30625</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="7">
-        <v>53</v>
-      </c>
-      <c r="D12" s="7">
-        <v>38180</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>34736</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="7">
-        <v>105</v>
-      </c>
-      <c r="N12" s="7">
-        <v>72917</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>111</v>
-      </c>
-      <c r="D13" s="7">
-        <v>72911</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H13" s="7">
-        <v>87</v>
-      </c>
-      <c r="I13" s="7">
-        <v>55130</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="M13" s="7">
-        <v>198</v>
-      </c>
-      <c r="N13" s="7">
-        <v>128041</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7">
-        <v>77</v>
-      </c>
-      <c r="D14" s="7">
-        <v>53514</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H14" s="7">
-        <v>66</v>
-      </c>
-      <c r="I14" s="7">
-        <v>44793</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="M14" s="7">
-        <v>143</v>
-      </c>
-      <c r="N14" s="7">
-        <v>98307</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="7">
-        <v>188</v>
-      </c>
-      <c r="D15" s="7">
-        <v>126425</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>153</v>
-      </c>
-      <c r="I15" s="7">
-        <v>99923</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
-        <v>341</v>
-      </c>
-      <c r="N15" s="7">
-        <v>226348</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C93931-51AA-48B7-8C82-1B024929A014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73C8083-E444-4DCA-937C-0C5068768C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8DBB52D4-ED04-4110-90DE-C99107A4EC25}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA55009-98F5-4B27-AA0D-BED5C4134F1C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -67,664 +67,820 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
-  </si>
-  <si>
-    <t>86,35%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>83,84%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>84,15%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>85,9%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,52%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>92,97%</t>
   </si>
   <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,23%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>86,25%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>90,17%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,92%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>89,65%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
+    <t>91,47%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +891,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -831,39 +987,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -915,7 +1071,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1026,13 +1182,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1041,6 +1190,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1105,19 +1261,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA5616CC-91EE-4429-82A9-95E83942C81A}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F785EB-440B-4B44-8E25-95BF9E115DAE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1234,10 +1410,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>283</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>189067</v>
+        <v>9133</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1249,10 +1425,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>271</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>178497</v>
+        <v>10399</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1264,10 +1440,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>554</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>367564</v>
+        <v>19532</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1285,10 +1461,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="D5" s="7">
-        <v>10919</v>
+        <v>98548</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1300,10 +1476,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>30</v>
+        <v>138</v>
       </c>
       <c r="I5" s="7">
-        <v>19310</v>
+        <v>91315</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1315,10 +1491,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>286</v>
       </c>
       <c r="N5" s="7">
-        <v>30229</v>
+        <v>189863</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1336,10 +1512,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>300</v>
+        <v>162</v>
       </c>
       <c r="D6" s="7">
-        <v>199986</v>
+        <v>107681</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1527,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>301</v>
+        <v>155</v>
       </c>
       <c r="I6" s="7">
-        <v>197807</v>
+        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1366,10 +1542,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>601</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>397793</v>
+        <v>209395</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1389,10 +1565,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>264</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>174780</v>
+        <v>17642</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1404,10 +1580,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>254</v>
+        <v>23</v>
       </c>
       <c r="I7" s="7">
-        <v>172085</v>
+        <v>15915</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1419,10 +1595,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>518</v>
+        <v>50</v>
       </c>
       <c r="N7" s="7">
-        <v>346865</v>
+        <v>33557</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1440,10 +1616,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>325</v>
       </c>
       <c r="D8" s="7">
-        <v>23522</v>
+        <v>215760</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1455,10 +1631,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>323</v>
       </c>
       <c r="I8" s="7">
-        <v>10154</v>
+        <v>215671</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1470,10 +1646,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>51</v>
+        <v>648</v>
       </c>
       <c r="N8" s="7">
-        <v>33676</v>
+        <v>431432</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1491,10 +1667,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>300</v>
+        <v>352</v>
       </c>
       <c r="D9" s="7">
-        <v>198302</v>
+        <v>233402</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1682,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>269</v>
+        <v>346</v>
       </c>
       <c r="I9" s="7">
-        <v>182239</v>
+        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1521,10 +1697,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>569</v>
+        <v>698</v>
       </c>
       <c r="N9" s="7">
-        <v>380541</v>
+        <v>464989</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1544,10 +1720,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>291</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>193900</v>
+        <v>13779</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1559,10 +1735,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>191281</v>
+        <v>11368</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1571,22 +1747,22 @@
         <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>574</v>
+        <v>38</v>
       </c>
       <c r="N10" s="7">
-        <v>385181</v>
+        <v>25148</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1595,49 +1771,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="D11" s="7">
-        <v>31827</v>
+        <v>101892</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>39</v>
+        <v>141</v>
       </c>
       <c r="I11" s="7">
-        <v>26691</v>
+        <v>94662</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="N11" s="7">
-        <v>58517</v>
+        <v>196553</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1646,10 +1822,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>339</v>
+        <v>173</v>
       </c>
       <c r="D12" s="7">
-        <v>225727</v>
+        <v>115671</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1661,10 +1837,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>322</v>
+        <v>158</v>
       </c>
       <c r="I12" s="7">
-        <v>217972</v>
+        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1676,10 +1852,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>661</v>
+        <v>331</v>
       </c>
       <c r="N12" s="7">
-        <v>443698</v>
+        <v>221701</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1693,55 +1869,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>838</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>557746</v>
+        <v>25714</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>808</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>541864</v>
+        <v>18472</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>1646</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>1099610</v>
+        <v>44186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1926,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7">
-        <v>66268</v>
+        <v>141546</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
+        <v>206</v>
+      </c>
+      <c r="I14" s="7">
+        <v>140215</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="I14" s="7">
-        <v>56154</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>81</v>
-      </c>
       <c r="M14" s="7">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>122422</v>
+        <v>281761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,55 +1977,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>252</v>
+      </c>
+      <c r="D15" s="7">
+        <v>167260</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>233</v>
+      </c>
+      <c r="I15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>485</v>
+      </c>
+      <c r="N15" s="7">
+        <v>325947</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>101</v>
+      </c>
+      <c r="D16" s="7">
+        <v>66268</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>84</v>
+      </c>
+      <c r="I16" s="7">
+        <v>56154</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>185</v>
+      </c>
+      <c r="N16" s="7">
+        <v>122422</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>838</v>
+      </c>
+      <c r="D17" s="7">
+        <v>557746</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>808</v>
+      </c>
+      <c r="I17" s="7">
+        <v>541864</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1646</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1099610</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>939</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>624014</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>892</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>598018</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1831</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1222032</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1862,8 +2199,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D20870E7-7494-4FD9-BCC0-43951D946F86}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FD93E1-D121-4152-9C25-6153D84F023C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,7 +2216,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1980,49 +2317,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>295</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7">
-        <v>210273</v>
+        <v>17897</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>290</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>192867</v>
+        <v>13704</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>585</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>403138</v>
+        <v>31601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,49 +2368,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="D5" s="7">
-        <v>22826</v>
+        <v>126003</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>35</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>23762</v>
+        <v>128528</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>69</v>
+        <v>370</v>
       </c>
       <c r="N5" s="7">
-        <v>46589</v>
+        <v>254531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,10 +2419,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>329</v>
+        <v>204</v>
       </c>
       <c r="D6" s="7">
-        <v>233099</v>
+        <v>143900</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2097,10 +2434,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>325</v>
+        <v>212</v>
       </c>
       <c r="I6" s="7">
-        <v>216629</v>
+        <v>142232</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2112,10 +2449,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>416</v>
       </c>
       <c r="N6" s="7">
-        <v>449727</v>
+        <v>286132</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2135,49 +2472,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>270</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>196343</v>
+        <v>23933</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>259</v>
+        <v>41</v>
       </c>
       <c r="I7" s="7">
-        <v>184613</v>
+        <v>29348</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>529</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>380956</v>
+        <v>53281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,49 +2523,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>42</v>
+        <v>316</v>
       </c>
       <c r="D8" s="7">
-        <v>30290</v>
+        <v>229392</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>275</v>
       </c>
       <c r="I8" s="7">
-        <v>31597</v>
+        <v>190502</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>85</v>
+        <v>591</v>
       </c>
       <c r="N8" s="7">
-        <v>61888</v>
+        <v>419894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,10 +2574,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="D9" s="7">
-        <v>226633</v>
+        <v>253325</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2589,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I9" s="7">
-        <v>216210</v>
+        <v>219850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2604,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>614</v>
+        <v>666</v>
       </c>
       <c r="N9" s="7">
-        <v>442844</v>
+        <v>473175</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2290,49 +2627,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="D10" s="7">
-        <v>216218</v>
+        <v>20768</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="H10" s="7">
-        <v>287</v>
+        <v>32</v>
       </c>
       <c r="I10" s="7">
-        <v>202054</v>
+        <v>22789</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>146</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="M10" s="7">
-        <v>606</v>
+        <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>418273</v>
+        <v>43558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,49 +2678,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>49</v>
+        <v>186</v>
       </c>
       <c r="D11" s="7">
-        <v>34474</v>
+        <v>128906</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>181</v>
       </c>
       <c r="I11" s="7">
-        <v>29583</v>
+        <v>127435</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>91</v>
+        <v>367</v>
       </c>
       <c r="N11" s="7">
-        <v>64057</v>
+        <v>256340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2729,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>368</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7">
-        <v>250692</v>
+        <v>149674</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2744,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>329</v>
+        <v>213</v>
       </c>
       <c r="I12" s="7">
-        <v>231637</v>
+        <v>150224</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2759,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>697</v>
+        <v>428</v>
       </c>
       <c r="N12" s="7">
-        <v>482330</v>
+        <v>299898</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2439,55 +2776,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>884</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>622834</v>
+        <v>24991</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>836</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>579534</v>
+        <v>19102</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>1720</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>1202367</v>
+        <v>44093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,49 +2833,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>125</v>
+        <v>204</v>
       </c>
       <c r="D14" s="7">
-        <v>87591</v>
+        <v>138535</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>120</v>
+        <v>188</v>
       </c>
       <c r="I14" s="7">
-        <v>84942</v>
+        <v>133068</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>245</v>
+        <v>392</v>
       </c>
       <c r="N14" s="7">
-        <v>172533</v>
+        <v>271603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>59</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,55 +2884,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>240</v>
+      </c>
+      <c r="D15" s="7">
+        <v>163526</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>215</v>
+      </c>
+      <c r="I15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>455</v>
+      </c>
+      <c r="N15" s="7">
+        <v>315696</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>125</v>
+      </c>
+      <c r="D16" s="7">
+        <v>87591</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>120</v>
+      </c>
+      <c r="I16" s="7">
+        <v>84942</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>245</v>
+      </c>
+      <c r="N16" s="7">
+        <v>172533</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>884</v>
+      </c>
+      <c r="D17" s="7">
+        <v>622833</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="7">
+        <v>836</v>
+      </c>
+      <c r="I17" s="7">
+        <v>579534</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1720</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1202368</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1009</v>
       </c>
-      <c r="D15" s="7">
-        <v>710425</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="D18" s="7">
+        <v>710424</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>956</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>664476</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1965</v>
       </c>
-      <c r="N15" s="7">
-        <v>1374900</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="N18" s="7">
+        <v>1374901</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2608,8 +3106,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C66E4A4E-D643-43A3-BB2C-7CDBDF6079D1}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467B5838-FB46-494C-B573-DE96B20F5F30}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2625,7 +3123,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2726,49 +3224,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>273</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7">
-        <v>181035</v>
+        <v>11244</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>276</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>171682</v>
+        <v>10998</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>549</v>
+        <v>35</v>
       </c>
       <c r="N4" s="7">
-        <v>352718</v>
+        <v>22243</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,49 +3275,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>29</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>19761</v>
+        <v>106574</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>184</v>
       </c>
       <c r="I5" s="7">
-        <v>20131</v>
+        <v>116011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>63</v>
+        <v>345</v>
       </c>
       <c r="N5" s="7">
-        <v>39891</v>
+        <v>222585</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,10 +3326,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>302</v>
+        <v>177</v>
       </c>
       <c r="D6" s="7">
-        <v>200796</v>
+        <v>117818</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2843,10 +3341,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>310</v>
+        <v>203</v>
       </c>
       <c r="I6" s="7">
-        <v>191813</v>
+        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2858,10 +3356,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>612</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>392609</v>
+        <v>244828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2881,49 +3379,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>298</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>206349</v>
+        <v>23471</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>300</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>197302</v>
+        <v>19671</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>598</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>403651</v>
+        <v>43142</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +3430,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>313</v>
       </c>
       <c r="D8" s="7">
-        <v>20068</v>
+        <v>212777</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>271</v>
       </c>
       <c r="I8" s="7">
-        <v>15821</v>
+        <v>173045</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>584</v>
       </c>
       <c r="N8" s="7">
-        <v>35889</v>
+        <v>385821</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +3481,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="D9" s="7">
-        <v>226417</v>
+        <v>236248</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2998,10 +3496,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>325</v>
+        <v>303</v>
       </c>
       <c r="I9" s="7">
-        <v>213123</v>
+        <v>192716</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3013,10 +3511,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="N9" s="7">
-        <v>439540</v>
+        <v>428963</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3036,49 +3534,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>288</v>
+        <v>27</v>
       </c>
       <c r="D10" s="7">
-        <v>214084</v>
+        <v>19453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>295</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>210784</v>
+        <v>14495</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>583</v>
+        <v>48</v>
       </c>
       <c r="N10" s="7">
-        <v>424868</v>
+        <v>33948</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,49 +3585,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>39</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7">
-        <v>28384</v>
+        <v>149314</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>36</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>25272</v>
+        <v>155003</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>75</v>
+        <v>430</v>
       </c>
       <c r="N11" s="7">
-        <v>53656</v>
+        <v>304318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,10 +3636,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>327</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>242468</v>
+        <v>168767</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3153,10 +3651,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>331</v>
+        <v>244</v>
       </c>
       <c r="I12" s="7">
-        <v>236056</v>
+        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3168,10 +3666,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>658</v>
+        <v>478</v>
       </c>
       <c r="N12" s="7">
-        <v>478524</v>
+        <v>338266</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3185,55 +3683,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>859</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7">
-        <v>601467</v>
+        <v>14044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>871</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>579768</v>
+        <v>16060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>147</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
-        <v>1730</v>
+        <v>43</v>
       </c>
       <c r="N13" s="7">
-        <v>1181236</v>
+        <v>30104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3740,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>98</v>
+        <v>178</v>
       </c>
       <c r="D14" s="7">
-        <v>68213</v>
+        <v>132803</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>258</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>259</v>
       </c>
       <c r="H14" s="7">
-        <v>95</v>
+        <v>193</v>
       </c>
       <c r="I14" s="7">
-        <v>61224</v>
+        <v>135709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="N14" s="7">
-        <v>129437</v>
+        <v>268512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,55 +3791,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>198</v>
+      </c>
+      <c r="D15" s="7">
+        <v>146847</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>216</v>
+      </c>
+      <c r="I15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>414</v>
+      </c>
+      <c r="N15" s="7">
+        <v>298616</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>98</v>
+      </c>
+      <c r="D16" s="7">
+        <v>68213</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="7">
+        <v>95</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61224</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" s="7">
+        <v>193</v>
+      </c>
+      <c r="N16" s="7">
+        <v>129437</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>859</v>
+      </c>
+      <c r="D17" s="7">
+        <v>601467</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
+        <v>871</v>
+      </c>
+      <c r="I17" s="7">
+        <v>579769</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1730</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1181236</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>957</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>669680</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>966</v>
       </c>
-      <c r="I15" s="7">
-        <v>640992</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="I18" s="7">
+        <v>640993</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1923</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1310673</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C73C8083-E444-4DCA-937C-0C5068768C4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B836A421-A652-4635-B0E0-7B0E287D8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BCA55009-98F5-4B27-AA0D-BED5C4134F1C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8C7EF9A-4C35-4419-822A-D32CEB409AA5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="283">
   <si>
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>8,48%</t>
   </si>
   <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
   </si>
   <si>
     <t>10,22%</t>
   </si>
   <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
   </si>
   <si>
     <t>No</t>
@@ -106,28 +106,28 @@
     <t>91,52%</t>
   </si>
   <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>89,78%</t>
   </si>
   <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
   </si>
   <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>7,56%</t>
   </si>
   <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
   </si>
   <si>
     <t>7,22%</t>
   </si>
   <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>95,32%</t>
   </si>
   <si>
     <t>92,78%</t>
   </si>
   <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -196,55 +196,55 @@
     <t>11,91%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
   </si>
   <si>
     <t>10,72%</t>
   </si>
   <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
   </si>
   <si>
     <t>11,34%</t>
   </si>
   <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
   </si>
   <si>
     <t>88,09%</t>
   </si>
   <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>89,28%</t>
   </si>
   <si>
-    <t>83,57%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>88,66%</t>
   </si>
   <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -253,592 +253,595 @@
     <t>15,37%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
   </si>
   <si>
     <t>11,64%</t>
   </si>
   <si>
-    <t>7,9%</t>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,71%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
+  </si>
+  <si>
+    <t>90,92%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,87%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
   </si>
   <si>
     <t>16,34%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
   </si>
   <si>
     <t>83,66%</t>
   </si>
   <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
   </si>
   <si>
     <t>10,58%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
   </si>
   <si>
     <t>89,42%</t>
   </si>
   <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>88,3%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2015 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,68%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,38%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>93,32%</t>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>86,68%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,53%</t>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
   </si>
   <si>
     <t>9,55%</t>
@@ -847,28 +850,31 @@
     <t>7,96%</t>
   </si>
   <si>
-    <t>11,65%</t>
+    <t>11,59%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>91,47%</t>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
   </si>
   <si>
     <t>90,45%</t>
   </si>
   <si>
-    <t>88,35%</t>
+    <t>88,41%</t>
   </si>
   <si>
     <t>92,04%</t>
@@ -877,10 +883,10 @@
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F785EB-440B-4B44-8E25-95BF9E115DAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD324B9A-C3BE-484C-9461-B2A84CDF6E4D}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1902,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>56</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -1911,13 +1917,13 @@
         <v>44186</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,13 +1938,13 @@
         <v>141546</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>206</v>
@@ -1947,13 +1953,13 @@
         <v>140215</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -1962,13 +1968,13 @@
         <v>281761</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2036,13 +2042,13 @@
         <v>66268</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H16" s="7">
         <v>84</v>
@@ -2051,13 +2057,13 @@
         <v>56154</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -2066,13 +2072,13 @@
         <v>122422</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2093,13 @@
         <v>557746</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>808</v>
@@ -2102,13 +2108,13 @@
         <v>541864</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1646</v>
@@ -2117,13 +2123,13 @@
         <v>1099610</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2179,7 +2185,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2199,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71FD93E1-D121-4152-9C25-6153D84F023C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682813C-A073-4189-9781-19951D51A0D2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2216,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2323,13 +2329,13 @@
         <v>17897</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H4" s="7">
         <v>20</v>
@@ -2338,13 +2344,13 @@
         <v>13704</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2353,13 +2359,13 @@
         <v>31601</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2380,13 @@
         <v>126003</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -2389,13 +2395,13 @@
         <v>128528</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -2404,13 +2410,13 @@
         <v>254531</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,13 +2484,13 @@
         <v>23933</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>41</v>
@@ -2493,13 +2499,13 @@
         <v>29348</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2508,13 +2514,13 @@
         <v>53281</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,13 +2535,13 @@
         <v>229392</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>275</v>
@@ -2544,13 +2550,13 @@
         <v>190502</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>591</v>
@@ -2559,13 +2565,13 @@
         <v>419894</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2639,13 @@
         <v>20768</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H10" s="7">
         <v>32</v>
@@ -2648,13 +2654,13 @@
         <v>22789</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2663,13 +2669,13 @@
         <v>43558</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,13 +2690,13 @@
         <v>128906</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>181</v>
@@ -3021,7 +3027,7 @@
         <v>1720</v>
       </c>
       <c r="N17" s="7">
-        <v>1202368</v>
+        <v>1202367</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>172</v>
@@ -3072,7 +3078,7 @@
         <v>1965</v>
       </c>
       <c r="N18" s="7">
-        <v>1374901</v>
+        <v>1374900</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3086,7 +3092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3106,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467B5838-FB46-494C-B573-DE96B20F5F30}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387D2B8C-0FBB-40C0-B984-5D2B9162A30A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3576,7 +3582,7 @@
         <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,13 +3597,13 @@
         <v>149314</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>223</v>
@@ -3606,13 +3612,13 @@
         <v>155003</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>430</v>
@@ -3621,13 +3627,13 @@
         <v>304318</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3695,13 +3701,13 @@
         <v>14044</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -3710,13 +3716,13 @@
         <v>16060</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>147</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3725,13 +3731,13 @@
         <v>30104</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,13 +3752,13 @@
         <v>132803</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H14" s="7">
         <v>193</v>
@@ -3761,7 +3767,7 @@
         <v>135709</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>156</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>260</v>
@@ -3856,7 +3862,7 @@
         <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>236</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>95</v>
@@ -3865,13 +3871,13 @@
         <v>61224</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3880,13 +3886,13 @@
         <v>129437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,28 +3907,28 @@
         <v>601467</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>871</v>
       </c>
       <c r="I17" s="7">
-        <v>579769</v>
+        <v>579768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>1730</v>
@@ -3931,13 +3937,13 @@
         <v>1181236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,7 +3970,7 @@
         <v>966</v>
       </c>
       <c r="I18" s="7">
-        <v>640993</v>
+        <v>640992</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3993,7 +3999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP18A04-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B836A421-A652-4635-B0E0-7B0E287D8034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7D67EB8-3F09-474A-BB4C-0DD49A416FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D8C7EF9A-4C35-4419-822A-D32CEB409AA5}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3DEE2D58-2AAA-46FD-995D-DB232A7EF874}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según su última visita al médico fue por revisión por otros motivos en 2007 (Tasa respuesta: 87,02%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,820 +73,820 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
     <t>8,48%</t>
   </si>
   <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
   </si>
   <si>
     <t>9,33%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>88,36%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,46%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>79,15%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>81,82%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,51%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
   </si>
   <si>
     <t>12,72%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
   </si>
   <si>
     <t>87,28%</t>
   </si>
   <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>84,63%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>88,36%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2012 (Tasa respuesta: 93,62%)</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>Menores según su última visita al médico fue por revisión por otros motivos en 2016 (Tasa respuesta: 90,45%)</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
+    <t>94,6%</t>
   </si>
   <si>
     <t>88,47%</t>
   </si>
   <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>92,3%</t>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>10,08%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>85,52%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>84,26%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
   </si>
   <si>
     <t>89,92%</t>
   </si>
   <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
   </si>
   <si>
     <t>9,88%</t>
   </si>
   <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
   </si>
   <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
   </si>
   <si>
     <t>90,12%</t>
   </si>
   <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
+    <t>91,3%</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD324B9A-C3BE-484C-9461-B2A84CDF6E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C39B1A6D-9425-4275-808B-42457BC1E7E9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1416,10 +1416,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>9133</v>
+        <v>10399</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1431,10 +1431,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>10399</v>
+        <v>9133</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1467,10 +1467,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D5" s="7">
-        <v>98548</v>
+        <v>91315</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1482,10 +1482,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="I5" s="7">
-        <v>91315</v>
+        <v>98548</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1518,25 +1518,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>155</v>
+      </c>
+      <c r="D6" s="7">
+        <v>101714</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>162</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>107681</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>155</v>
-      </c>
-      <c r="I6" s="7">
-        <v>101714</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1571,10 +1571,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>17642</v>
+        <v>15915</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1586,10 +1586,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I7" s="7">
-        <v>15915</v>
+        <v>17642</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1622,10 +1622,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D8" s="7">
-        <v>215760</v>
+        <v>215671</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1637,10 +1637,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="I8" s="7">
-        <v>215671</v>
+        <v>215760</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1673,25 +1673,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>346</v>
+      </c>
+      <c r="D9" s="7">
+        <v>231586</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>352</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>233402</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>346</v>
-      </c>
-      <c r="I9" s="7">
-        <v>231586</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1726,10 +1726,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>13779</v>
+        <v>11368</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1741,10 +1741,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>11368</v>
+        <v>13779</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1777,10 +1777,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="D11" s="7">
-        <v>101892</v>
+        <v>94662</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1792,10 +1792,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="I11" s="7">
-        <v>94662</v>
+        <v>101892</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1828,25 +1828,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>158</v>
+      </c>
+      <c r="D12" s="7">
+        <v>106030</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>173</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>115671</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>158</v>
-      </c>
-      <c r="I12" s="7">
-        <v>106030</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1881,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>25714</v>
+        <v>18472</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1896,10 +1896,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="I13" s="7">
-        <v>18472</v>
+        <v>25714</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1908,7 +1908,7 @@
         <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>66</v>
@@ -1917,13 +1917,13 @@
         <v>44186</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,34 +1932,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>206</v>
+      </c>
+      <c r="D14" s="7">
+        <v>140215</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>213</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>141546</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="7">
-        <v>206</v>
-      </c>
-      <c r="I14" s="7">
-        <v>140215</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>419</v>
@@ -1968,13 +1968,13 @@
         <v>281761</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1983,25 +1983,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>233</v>
+      </c>
+      <c r="D15" s="7">
+        <v>158687</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>252</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>167260</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>233</v>
-      </c>
-      <c r="I15" s="7">
-        <v>158687</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2036,34 +2036,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>84</v>
+      </c>
+      <c r="D16" s="7">
+        <v>56154</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>101</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>66268</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>84</v>
-      </c>
-      <c r="I16" s="7">
-        <v>56154</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>185</v>
@@ -2072,13 +2072,13 @@
         <v>122422</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,34 +2087,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>808</v>
+      </c>
+      <c r="D17" s="7">
+        <v>541864</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
         <v>838</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>557746</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H17" s="7">
-        <v>808</v>
-      </c>
-      <c r="I17" s="7">
-        <v>541864</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>1646</v>
@@ -2123,13 +2123,13 @@
         <v>1099610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,25 +2138,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>892</v>
+      </c>
+      <c r="D18" s="7">
+        <v>598018</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>939</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>624014</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>892</v>
-      </c>
-      <c r="I18" s="7">
-        <v>598018</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2205,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B682813C-A073-4189-9781-19951D51A0D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B281802F-1C7A-44D5-848F-D64EB4B4C815}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,7 +2222,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2323,34 +2323,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>20</v>
+      </c>
+      <c r="D4" s="7">
+        <v>13704</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="H4" s="7">
         <v>26</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>17897</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>13704</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2359,13 +2359,13 @@
         <v>31601</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,34 +2374,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>192</v>
+      </c>
+      <c r="D5" s="7">
+        <v>128528</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="7">
         <v>178</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>126003</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H5" s="7">
-        <v>192</v>
-      </c>
-      <c r="I5" s="7">
-        <v>128528</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
         <v>370</v>
@@ -2410,13 +2410,13 @@
         <v>254531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,25 +2425,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>212</v>
+      </c>
+      <c r="D6" s="7">
+        <v>142232</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>204</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>143900</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>212</v>
-      </c>
-      <c r="I6" s="7">
-        <v>142232</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2478,34 +2478,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7">
+        <v>29348</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>34</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>23933</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H7" s="7">
-        <v>41</v>
-      </c>
-      <c r="I7" s="7">
-        <v>29348</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -2514,13 +2514,13 @@
         <v>53281</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,34 +2529,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>275</v>
+      </c>
+      <c r="D8" s="7">
+        <v>190502</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>316</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>229392</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>275</v>
-      </c>
-      <c r="I8" s="7">
-        <v>190502</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>591</v>
@@ -2565,13 +2565,13 @@
         <v>419894</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2580,25 +2580,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>316</v>
+      </c>
+      <c r="D9" s="7">
+        <v>219850</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>350</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253325</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>316</v>
-      </c>
-      <c r="I9" s="7">
-        <v>219850</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2633,34 +2633,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>32</v>
+      </c>
+      <c r="D10" s="7">
+        <v>22789</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>29</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>20768</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>32</v>
-      </c>
-      <c r="I10" s="7">
-        <v>22789</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -2669,13 +2669,13 @@
         <v>43558</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,34 +2684,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>181</v>
+      </c>
+      <c r="D11" s="7">
+        <v>127435</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="7">
         <v>186</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>128906</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>181</v>
-      </c>
-      <c r="I11" s="7">
-        <v>127435</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>367</v>
@@ -2720,13 +2720,13 @@
         <v>256340</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,25 +2735,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>213</v>
+      </c>
+      <c r="D12" s="7">
+        <v>150224</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>215</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>149674</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>213</v>
-      </c>
-      <c r="I12" s="7">
-        <v>150224</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2788,34 +2788,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19102</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="7">
         <v>36</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24991</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19102</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>63</v>
@@ -2824,13 +2824,13 @@
         <v>44093</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,34 +2839,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7">
+        <v>133068</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="7">
         <v>204</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>138535</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H14" s="7">
-        <v>188</v>
-      </c>
-      <c r="I14" s="7">
-        <v>133068</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>392</v>
@@ -2875,13 +2875,13 @@
         <v>271603</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2890,25 +2890,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>215</v>
+      </c>
+      <c r="D15" s="7">
+        <v>152170</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>240</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>163526</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>215</v>
-      </c>
-      <c r="I15" s="7">
-        <v>152170</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2943,34 +2943,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>120</v>
+      </c>
+      <c r="D16" s="7">
+        <v>84942</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="H16" s="7">
         <v>125</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>87591</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="7">
-        <v>120</v>
-      </c>
-      <c r="I16" s="7">
-        <v>84942</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>245</v>
@@ -2979,13 +2979,13 @@
         <v>172533</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2994,49 +2994,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>836</v>
+      </c>
+      <c r="D17" s="7">
+        <v>579534</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
         <v>884</v>
       </c>
-      <c r="D17" s="7">
-        <v>622833</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H17" s="7">
-        <v>836</v>
-      </c>
       <c r="I17" s="7">
-        <v>579534</v>
+        <v>622834</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
         <v>1720</v>
       </c>
       <c r="N17" s="7">
-        <v>1202367</v>
+        <v>1202368</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>193</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,25 +3045,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>956</v>
+      </c>
+      <c r="D18" s="7">
+        <v>664476</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1009</v>
       </c>
-      <c r="D18" s="7">
-        <v>710424</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>956</v>
-      </c>
       <c r="I18" s="7">
-        <v>664476</v>
+        <v>710425</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3078,7 +3078,7 @@
         <v>1965</v>
       </c>
       <c r="N18" s="7">
-        <v>1374900</v>
+        <v>1374901</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3092,7 +3092,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3112,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{387D2B8C-0FBB-40C0-B984-5D2B9162A30A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91480CC2-03E8-4D9A-9704-F0D3DC3402F5}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3230,10 +3230,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>11244</v>
+        <v>10998</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>195</v>
@@ -3245,10 +3245,10 @@
         <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="I4" s="7">
-        <v>10998</v>
+        <v>11244</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>198</v>
@@ -3281,10 +3281,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="D5" s="7">
-        <v>106574</v>
+        <v>116011</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>204</v>
@@ -3296,10 +3296,10 @@
         <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="I5" s="7">
-        <v>116011</v>
+        <v>106574</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>207</v>
@@ -3332,25 +3332,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>203</v>
+      </c>
+      <c r="D6" s="7">
+        <v>127009</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>177</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>117818</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>203</v>
-      </c>
-      <c r="I6" s="7">
-        <v>127009</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3385,10 +3385,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>23471</v>
+        <v>19671</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>213</v>
@@ -3400,10 +3400,10 @@
         <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>19671</v>
+        <v>23471</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>216</v>
@@ -3436,10 +3436,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="D8" s="7">
-        <v>212777</v>
+        <v>173045</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>222</v>
@@ -3451,10 +3451,10 @@
         <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>271</v>
+        <v>313</v>
       </c>
       <c r="I8" s="7">
-        <v>173045</v>
+        <v>212777</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>225</v>
@@ -3487,25 +3487,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>303</v>
+      </c>
+      <c r="D9" s="7">
+        <v>192716</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>348</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>236248</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>303</v>
-      </c>
-      <c r="I9" s="7">
-        <v>192716</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3540,10 +3540,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>19453</v>
+        <v>14495</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>231</v>
@@ -3555,10 +3555,10 @@
         <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>14495</v>
+        <v>19453</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>234</v>
@@ -3582,7 +3582,7 @@
         <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,34 +3591,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>223</v>
+      </c>
+      <c r="D11" s="7">
+        <v>155003</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="7">
         <v>207</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>149314</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="H11" s="7">
-        <v>223</v>
-      </c>
-      <c r="I11" s="7">
-        <v>155003</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>430</v>
@@ -3627,13 +3627,13 @@
         <v>304318</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,25 +3642,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>244</v>
+      </c>
+      <c r="D12" s="7">
+        <v>169498</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>234</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>168767</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>244</v>
-      </c>
-      <c r="I12" s="7">
-        <v>169498</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3695,34 +3695,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>23</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16060</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="7">
         <v>20</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>14044</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H13" s="7">
-        <v>23</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16060</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -3731,13 +3731,13 @@
         <v>30104</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,34 +3746,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>193</v>
+      </c>
+      <c r="D14" s="7">
+        <v>135709</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>178</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>132803</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="7">
-        <v>193</v>
-      </c>
-      <c r="I14" s="7">
-        <v>135709</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>371</v>
@@ -3782,13 +3782,13 @@
         <v>268512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,25 +3797,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>216</v>
+      </c>
+      <c r="D15" s="7">
+        <v>151769</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>198</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>146847</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>216</v>
-      </c>
-      <c r="I15" s="7">
-        <v>151769</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3850,34 +3850,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>95</v>
+      </c>
+      <c r="D16" s="7">
+        <v>61224</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
         <v>98</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>68213</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="7">
-        <v>95</v>
-      </c>
-      <c r="I16" s="7">
-        <v>61224</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>193</v>
@@ -3886,13 +3886,13 @@
         <v>129437</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,34 +3901,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>871</v>
+      </c>
+      <c r="D17" s="7">
+        <v>579769</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H17" s="7">
         <v>859</v>
       </c>
-      <c r="D17" s="7">
-        <v>601467</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="7">
-        <v>871</v>
-      </c>
       <c r="I17" s="7">
-        <v>579768</v>
+        <v>601468</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M17" s="7">
         <v>1730</v>
@@ -3937,10 +3937,10 @@
         <v>1181236</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>282</v>
@@ -3952,25 +3952,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>966</v>
+      </c>
+      <c r="D18" s="7">
+        <v>640993</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>957</v>
       </c>
-      <c r="D18" s="7">
-        <v>669680</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>966</v>
-      </c>
       <c r="I18" s="7">
-        <v>640992</v>
+        <v>669681</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
